--- a/Dispa-SET/Simulation/InputDispa-SET - EmissionMaximum.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - EmissionMaximum.xlsx
@@ -84,12 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +411,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
@@ -420,7 +419,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
